--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramd\Documents\Projects\klushok\kerst2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8A1239-0C24-482F-8AAA-DAB28C829421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAAF485-B15E-4D61-A12B-C39971BDF835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
   <si>
     <t>Reference</t>
   </si>
@@ -372,6 +372,18 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32768672866.html</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>diffused leds</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
@@ -381,7 +393,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +413,12 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,8 +501,8 @@
     <tableColumn id="7" xr3:uid="{61CFCE03-6E87-4B16-AF06-724701B15169}" name="PCB"/>
     <tableColumn id="3" xr3:uid="{39E391E3-C55E-49B2-9BAC-5D17A30ED457}" name="quantity"/>
     <tableColumn id="4" xr3:uid="{137DBDCB-45B8-4068-AF72-64CA7C61BBEA}" name="price total"/>
-    <tableColumn id="5" xr3:uid="{E948FFEA-7B7E-4C76-9BBF-25CE87E0A596}" name="member price" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C37D4A09-7785-4763-A080-D6B3BB12144A}" name="klushok costs" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E948FFEA-7B7E-4C76-9BBF-25CE87E0A596}" name="member price" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{C37D4A09-7785-4763-A080-D6B3BB12144A}" name="klushok costs" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -501,8 +519,8 @@
     <tableColumn id="2" xr3:uid="{C605D1D3-B537-4468-9480-20F75C3D70AB}" name=" Quantity"/>
     <tableColumn id="3" xr3:uid="{929AB054-0D36-4EF5-ABD8-8D427B5A4122}" name=" Value"/>
     <tableColumn id="4" xr3:uid="{21ED9F23-1CB8-4CBC-9905-1FA9E54E38B1}" name=" Footprint"/>
-    <tableColumn id="6" xr3:uid="{CBCD78A6-02FF-43CD-9C36-703169F23295}" name="price ex shipping" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F84A9C3D-C610-4475-AD00-C708B5A686DC}" name="price total" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{CBCD78A6-02FF-43CD-9C36-703169F23295}" name="price ex shipping" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F84A9C3D-C610-4475-AD00-C708B5A686DC}" name="price total" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{2C47E07E-4E5B-4DA7-8CC1-FB7284414D6B}" name="ali link"/>
     <tableColumn id="8" xr3:uid="{D15E86DD-8FD4-4F96-A014-FBDB482471ED}" name="shipping costs"/>
     <tableColumn id="9" xr3:uid="{953EE84F-067D-48CA-AC9E-6485B9DF0B2B}" name="order qty"/>
@@ -513,24 +531,26 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E2D7195-2870-4C3D-A6C1-A5993B6FD3E5}" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0">
-  <autoFilter ref="A1:J11" xr:uid="{5E2D7195-2870-4C3D-A6C1-A5993B6FD3E5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E2D7195-2870-4C3D-A6C1-A5993B6FD3E5}" name="Table1" displayName="Table1" ref="A1:L11" totalsRowShown="0">
+  <autoFilter ref="A1:L11" xr:uid="{5E2D7195-2870-4C3D-A6C1-A5993B6FD3E5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="A1:A10"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{EAD78010-5A47-48AA-968F-A1123B703582}" name="Reference"/>
     <tableColumn id="2" xr3:uid="{E8C6AA83-0F67-4090-9BE6-7B0F260C8A9C}" name=" Quantity"/>
     <tableColumn id="3" xr3:uid="{9E5E4240-B919-46F1-ACE0-53AFDDF018E4}" name=" Value"/>
     <tableColumn id="4" xr3:uid="{CDFBC5C3-C208-419F-9F92-5E7AD2435D8F}" name=" Footprint"/>
-    <tableColumn id="7" xr3:uid="{315C9F16-E5AA-4909-AA4B-04227FB37222}" name="Price ex shipping p.s." dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{7BA96F3D-10ED-4F1E-909F-896084B0057E}" name="Price per PCB" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{315C9F16-E5AA-4909-AA4B-04227FB37222}" name="Price ex shipping p.s." dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{7BA96F3D-10ED-4F1E-909F-896084B0057E}" name="Price per PCB" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Price ex shipping p.s.]]*Table1[[#This Row],[ Quantity]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{2449E393-DB5D-4126-B250-9C1184063D18}" name=" Datasheet"/>
     <tableColumn id="8" xr3:uid="{58EB6B14-95FD-4241-BB7F-29AC2E5B3146}" name="ali link"/>
-    <tableColumn id="9" xr3:uid="{56149934-302B-4B66-ABEC-40012CC1CA0B}" name="shipping" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{56149934-302B-4B66-ABEC-40012CC1CA0B}" name="shipping" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{2B3C2B78-2449-4EF2-A3E0-CC24BBE66A10}" name="order qty"/>
+    <tableColumn id="6" xr3:uid="{498D528B-4F4E-421B-B08B-80FF3F3B6CFB}" name="Column1"/>
+    <tableColumn id="12" xr3:uid="{5A197DDB-DCBE-4496-800B-606B64739B1B}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1412,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,9 +1448,11 @@
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" customWidth="1"/>
     <col min="8" max="8" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1461,8 +1483,14 @@
       <c r="J1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1496,7 +1524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1530,7 +1558,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1564,7 +1592,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1597,8 +1625,14 @@
       <c r="J5">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1632,7 +1666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1666,7 +1700,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1699,7 +1733,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1729,7 +1763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1763,7 +1797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -1789,6 +1823,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{D41669D6-D06F-4915-B889-4AD878329343}"/>
   </hyperlinks>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramd\Documents\Projects\klushok\kerst2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAAF485-B15E-4D61-A12B-C39971BDF835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B922FC0-6EFB-4D72-95D7-AB562C822D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="-105" windowWidth="29010" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
   <si>
     <t>Reference</t>
   </si>
@@ -143,9 +143,6 @@
     <t>https://www.aliexpress.com/item/32963951195.html</t>
   </si>
   <si>
-    <t>shipping</t>
-  </si>
-  <si>
     <t>order qty</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>price ex shipping</t>
   </si>
   <si>
-    <t>shipping costs</t>
-  </si>
-  <si>
     <t>components</t>
   </si>
   <si>
@@ -371,9 +365,6 @@
     <t>https://www.aliexpress.com/item/4000061557631.html</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/32768672866.html</t>
   </si>
   <si>
@@ -384,6 +375,24 @@
   </si>
   <si>
     <t>Column2</t>
+  </si>
+  <si>
+    <t>minimum qty</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32876323977.html</t>
+  </si>
+  <si>
+    <t>price inc shipping</t>
+  </si>
+  <si>
+    <t>10*40p</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>units sold</t>
   </si>
 </sst>
 </file>
@@ -445,21 +454,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
@@ -493,16 +509,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC266E54-93BE-495E-BCEF-812A8CEF8A70}" name="Table3" displayName="Table3" ref="B3:H7" totalsRowShown="0">
-  <autoFilter ref="B3:H7" xr:uid="{CC266E54-93BE-495E-BCEF-812A8CEF8A70}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC266E54-93BE-495E-BCEF-812A8CEF8A70}" name="Table3" displayName="Table3" ref="B3:J7" totalsRowShown="0">
+  <autoFilter ref="B3:J7" xr:uid="{CC266E54-93BE-495E-BCEF-812A8CEF8A70}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DC0221D3-A844-4092-8F05-F78A1D2D927A}" name="product"/>
     <tableColumn id="2" xr3:uid="{B4441114-D805-481E-9B59-15A2FF8D0154}" name="components"/>
     <tableColumn id="7" xr3:uid="{61CFCE03-6E87-4B16-AF06-724701B15169}" name="PCB"/>
     <tableColumn id="3" xr3:uid="{39E391E3-C55E-49B2-9BAC-5D17A30ED457}" name="quantity"/>
     <tableColumn id="4" xr3:uid="{137DBDCB-45B8-4068-AF72-64CA7C61BBEA}" name="price total"/>
-    <tableColumn id="5" xr3:uid="{E948FFEA-7B7E-4C76-9BBF-25CE87E0A596}" name="member price" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{C37D4A09-7785-4763-A080-D6B3BB12144A}" name="klushok costs" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{2E286E9A-8CEA-4278-91FB-40865944ED7E}" name="price inc shipping"/>
+    <tableColumn id="9" xr3:uid="{DE70FBCD-CD85-4EE1-83CD-85DF7ED912D4}" name="units sold" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{E948FFEA-7B7E-4C76-9BBF-25CE87E0A596}" name="member price" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{C37D4A09-7785-4763-A080-D6B3BB12144A}" name="klushok costs" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,10 +537,12 @@
     <tableColumn id="2" xr3:uid="{C605D1D3-B537-4468-9480-20F75C3D70AB}" name=" Quantity"/>
     <tableColumn id="3" xr3:uid="{929AB054-0D36-4EF5-ABD8-8D427B5A4122}" name=" Value"/>
     <tableColumn id="4" xr3:uid="{21ED9F23-1CB8-4CBC-9905-1FA9E54E38B1}" name=" Footprint"/>
-    <tableColumn id="6" xr3:uid="{CBCD78A6-02FF-43CD-9C36-703169F23295}" name="price ex shipping" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{F84A9C3D-C610-4475-AD00-C708B5A686DC}" name="price total" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{CBCD78A6-02FF-43CD-9C36-703169F23295}" name="price ex shipping" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F84A9C3D-C610-4475-AD00-C708B5A686DC}" name="price total" dataDxfId="4"/>
     <tableColumn id="11" xr3:uid="{2C47E07E-4E5B-4DA7-8CC1-FB7284414D6B}" name="ali link"/>
-    <tableColumn id="8" xr3:uid="{D15E86DD-8FD4-4F96-A014-FBDB482471ED}" name="shipping costs"/>
+    <tableColumn id="8" xr3:uid="{D15E86DD-8FD4-4F96-A014-FBDB482471ED}" name="minimum qty">
+      <calculatedColumnFormula>Table15[[#This Row],[ Quantity]]*overview!$E$5</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="9" xr3:uid="{953EE84F-067D-48CA-AC9E-6485B9DF0B2B}" name="order qty"/>
     <tableColumn id="10" xr3:uid="{2ED3CBFE-C027-42FC-99D0-F69B8452D000}" name=" Datasheet"/>
   </tableColumns>
@@ -541,13 +561,15 @@
     <tableColumn id="2" xr3:uid="{E8C6AA83-0F67-4090-9BE6-7B0F260C8A9C}" name=" Quantity"/>
     <tableColumn id="3" xr3:uid="{9E5E4240-B919-46F1-ACE0-53AFDDF018E4}" name=" Value"/>
     <tableColumn id="4" xr3:uid="{CDFBC5C3-C208-419F-9F92-5E7AD2435D8F}" name=" Footprint"/>
-    <tableColumn id="7" xr3:uid="{315C9F16-E5AA-4909-AA4B-04227FB37222}" name="Price ex shipping p.s." dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{7BA96F3D-10ED-4F1E-909F-896084B0057E}" name="Price per PCB" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{315C9F16-E5AA-4909-AA4B-04227FB37222}" name="Price ex shipping p.s." dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{7BA96F3D-10ED-4F1E-909F-896084B0057E}" name="Price per PCB" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Price ex shipping p.s.]]*Table1[[#This Row],[ Quantity]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{2449E393-DB5D-4126-B250-9C1184063D18}" name=" Datasheet"/>
     <tableColumn id="8" xr3:uid="{58EB6B14-95FD-4241-BB7F-29AC2E5B3146}" name="ali link"/>
-    <tableColumn id="9" xr3:uid="{56149934-302B-4B66-ABEC-40012CC1CA0B}" name="shipping" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{56149934-302B-4B66-ABEC-40012CC1CA0B}" name="minimum qty" dataDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[ Quantity]]*overview!$E$4</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="10" xr3:uid="{2B3C2B78-2449-4EF2-A3E0-CC24BBE66A10}" name="order qty"/>
     <tableColumn id="6" xr3:uid="{498D528B-4F4E-421B-B08B-80FF3F3B6CFB}" name="Column1"/>
     <tableColumn id="12" xr3:uid="{5A197DDB-DCBE-4496-800B-606B64739B1B}" name="Column2"/>
@@ -819,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B04F378-5C23-4F4B-935E-ED3FE59A8547}">
-  <dimension ref="B3:H7"/>
+  <dimension ref="B3:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,97 +853,127 @@
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
       <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
         <v>53</v>
       </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <f>SUM(Table1[Price per PCB])</f>
-        <v>4.6910500000000006</v>
+        <v>4.8492500000000005</v>
       </c>
       <c r="D4" s="1">
-        <f>20.2/80</f>
-        <v>0.2525</v>
+        <f>D6/130</f>
+        <v>0.61230769230769222</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
       <c r="F4" s="1">
         <f>Table3[[#This Row],[quantity]]*(Table3[[#This Row],[components]]+Table3[[#This Row],[PCB]])</f>
-        <v>247.17750000000004</v>
+        <v>273.07788461538462</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <f>Table3[[#This Row],[price total]]-Table3[[#This Row],[quantity]]*Table3[[#This Row],[member price]]</f>
-        <v>147.17750000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>261.89999999999998</v>
+      </c>
+      <c r="H4" s="6">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <f>Table3[[#This Row],[price inc shipping]]-Table3[[#This Row],[units sold]]*Table3[[#This Row],[member price]]</f>
+        <v>201.89999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <f>SUM(Table15[price total])</f>
         <v>0.90529999999999999</v>
       </c>
-      <c r="D5">
-        <f>(2+7)/20</f>
-        <v>0.45</v>
+      <c r="D5" s="1">
+        <f>D6*2/130</f>
+        <v>1.2246153846153844</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
       <c r="F5" s="1">
         <f>Table3[[#This Row],[quantity]]*(Table3[[#This Row],[components]]+Table3[[#This Row],[PCB]])</f>
-        <v>27.105999999999998</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <f>Table3[[#This Row],[price total]]-Table3[[#This Row],[quantity]]*Table3[[#This Row],[member price]]</f>
-        <v>27.105999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>42.598307692307685</v>
+      </c>
+      <c r="G5" s="1">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <f>Table3[[#This Row],[price inc shipping]]-Table3[[#This Row],[units sold]]*Table3[[#This Row],[member price]]</f>
+        <v>17.869999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1">
-        <v>18.8</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+        <v>79.599999999999994</v>
+      </c>
+      <c r="G6" s="1">
+        <v>301.64999999999998</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <f>Table3[[#This Row],[price inc shipping]]-H4*I4-H5*I5</f>
+        <v>221.64999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -936,7 +988,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,19 +1018,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -986,7 +1038,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -995,10 +1047,23 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="E2" s="1">
+        <f>1.29/100</f>
+        <v>1.29E-2</v>
+      </c>
       <c r="F2" s="1"/>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
       <c r="J2" t="s">
         <v>8</v>
       </c>
@@ -1014,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1">
         <f>1.55/20</f>
@@ -1025,7 +1090,14 @@
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="H3">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -1033,7 +1105,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1042,7 +1114,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1">
         <f>0.95/100</f>
@@ -1053,7 +1125,14 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="H4">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
@@ -1061,16 +1140,16 @@
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4">
         <f>1.09/100</f>
@@ -1080,7 +1159,11 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="H5">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>40</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>8</v>
@@ -1088,16 +1171,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
         <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
       </c>
       <c r="E6" s="1">
         <f>0.6/100</f>
@@ -1108,6 +1191,13 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>20</v>
+      </c>
+      <c r="I6">
         <v>100</v>
       </c>
       <c r="J6" t="s">
@@ -1122,10 +1212,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
       </c>
       <c r="E7" s="1">
         <f>0.85/10</f>
@@ -1136,10 +1226,17 @@
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="H7">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1150,10 +1247,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
       </c>
       <c r="E8" s="1">
         <f>2.4/400</f>
@@ -1164,7 +1261,14 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>140</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
@@ -1172,16 +1276,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
       </c>
       <c r="E9" s="1">
         <f>1.35/10</f>
@@ -1192,7 +1296,14 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="H9">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
@@ -1200,16 +1311,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
       </c>
       <c r="E10" s="1">
         <f>0.66/100</f>
@@ -1219,25 +1330,32 @@
         <f>Table15[[#This Row],[price ex shipping]]*Table15[[#This Row],[ Quantity]]</f>
         <v>1.32E-2</v>
       </c>
-      <c r="G10" t="s">
-        <v>104</v>
+      <c r="G10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="1">
         <f>0.61/100</f>
@@ -1247,8 +1365,15 @@
         <f>Table15[[#This Row],[price ex shipping]]*Table15[[#This Row],[ Quantity]]</f>
         <v>6.0999999999999995E-3</v>
       </c>
-      <c r="G11" t="s">
-        <v>98</v>
+      <c r="G11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>
@@ -1256,16 +1381,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1">
         <f>0.61/100</f>
@@ -1276,7 +1401,14 @@
         <v>6.0999999999999995E-3</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="H12">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
       </c>
       <c r="J12" t="s">
         <v>8</v>
@@ -1284,7 +1416,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1293,7 +1425,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1">
         <f>0.61/100</f>
@@ -1304,7 +1436,14 @@
         <v>1.2199999999999999E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="H13">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
       </c>
       <c r="J13" t="s">
         <v>8</v>
@@ -1312,16 +1451,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1">
         <f>0.61/100</f>
@@ -1332,7 +1471,14 @@
         <v>1.2199999999999999E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="H14">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
@@ -1346,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
         <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
       </c>
       <c r="E15" s="1">
         <f>1.01/20</f>
@@ -1360,10 +1506,17 @@
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="H15">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1374,10 +1527,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1">
         <f>0.9/2</f>
@@ -1388,24 +1541,31 @@
         <v>0.45</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="H16">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E17" s="4">
         <f>0.4/10</f>
@@ -1415,17 +1575,25 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="H17">
+        <f>Table15[[#This Row],[ Quantity]]*overview!$E$5</f>
+        <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G10" r:id="rId1" xr:uid="{B007D6CC-24F0-4E6C-85E2-5DF8DA377E94}"/>
+    <hyperlink ref="G11" r:id="rId2" xr:uid="{4FB8DC3F-6BE1-49F9-AF61-3A1B5D7DB7A5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1434,13 +1602,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
@@ -1448,6 +1616,8 @@
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" customWidth="1"/>
     <col min="8" max="8" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1466,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1478,16 +1648,16 @@
         <v>33</v>
       </c>
       <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
       <c r="K1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1514,11 +1684,12 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.81</v>
+      <c r="H2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="6">
+        <f>Table1[[#This Row],[ Quantity]]*overview!$E$4</f>
+        <v>50</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -1549,13 +1720,14 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.4300000000000002</v>
+        <v>45</v>
+      </c>
+      <c r="I3" s="6">
+        <f>Table1[[#This Row],[ Quantity]]*overview!$E$4</f>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1583,17 +1755,18 @@
         <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.81</v>
+        <v>44</v>
+      </c>
+      <c r="I4" s="6">
+        <f>Table1[[#This Row],[ Quantity]]*overview!$E$4</f>
+        <v>150</v>
       </c>
       <c r="J4">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B5">
@@ -1617,19 +1790,20 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.2</v>
+        <v>40</v>
+      </c>
+      <c r="I5" s="6">
+        <f>Table1[[#This Row],[ Quantity]]*overview!$E$4</f>
+        <v>1000</v>
       </c>
       <c r="J5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1646,24 +1820,28 @@
         <v>20</v>
       </c>
       <c r="E6" s="1">
-        <f>0.83/50</f>
-        <v>1.66E-2</v>
+        <f>8.74/50</f>
+        <v>0.17480000000000001</v>
       </c>
       <c r="F6" s="1">
         <f>Table1[[#This Row],[Price ex shipping p.s.]]*Table1[[#This Row],[ Quantity]]</f>
-        <v>1.66E-2</v>
+        <v>0.17480000000000001</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3.35</v>
+        <v>51</v>
+      </c>
+      <c r="I6" s="6">
+        <f>Table1[[#This Row],[ Quantity]]*overview!$E$4</f>
+        <v>50</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1690,25 +1868,26 @@
       <c r="G7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3.09</v>
+      <c r="H7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="6">
+        <f>Table1[[#This Row],[ Quantity]]*overview!$E$4</f>
+        <v>150</v>
       </c>
       <c r="J7">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1723,11 +1902,12 @@
       <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2.88</v>
+      <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="6">
+        <f>Table1[[#This Row],[ Quantity]]*overview!$E$4</f>
+        <v>100</v>
       </c>
       <c r="J8">
         <v>200</v>
@@ -1756,11 +1936,12 @@
       <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="1">
-        <v>8.86</v>
+      <c r="I9" s="6">
+        <f>Table1[[#This Row],[ Quantity]]*overview!$E$4</f>
+        <v>50</v>
       </c>
       <c r="J9">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1788,10 +1969,11 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1.84</v>
+        <v>41</v>
+      </c>
+      <c r="I10" s="6">
+        <f>Table1[[#This Row],[ Quantity]]*overview!$E$4</f>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -1799,7 +1981,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1813,10 +1995,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="I11" s="6">
+        <f>Table1[[#This Row],[ Quantity]]*overview!$E$4</f>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -1826,10 +2009,14 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{D41669D6-D06F-4915-B889-4AD878329343}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{C71CCF08-9F8D-4B0A-9B5E-A3BBFD7A941C}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{694546EA-FF38-4CD6-9E5E-7EE27CCF8B29}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{693CD774-9641-495A-9BCB-30C1423EE0BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>